--- a/data/vgp_database/Tequila_volcanic_field.xlsx
+++ b/data/vgp_database/Tequila_volcanic_field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Github/Gallo_etal_2023_APWP_construction/data/vgp_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8655CDB-C0F4-284B-BE0A-519E91697B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50CC584-E0CD-4447-88EE-496B976A77A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -332,9 +332,6 @@
     <t>Lava</t>
   </si>
   <si>
-    <t>Andesitie</t>
-  </si>
-  <si>
     <t>Basaltic Andesite</t>
   </si>
   <si>
@@ -412,6 +409,9 @@
   <si>
     <t>10.1186/BF03352651</t>
   </si>
+  <si>
+    <t>Andesite</t>
+  </si>
 </sst>
 </file>
 
@@ -421,11 +421,18 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -527,68 +534,69 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -808,7 +816,7 @@
   <dimension ref="A1:AQ779"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AN18" sqref="AN18"/>
+      <selection activeCell="AP8" sqref="AP8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1431,8 +1439,8 @@
       <c r="AO8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AP8" s="3" t="s">
-        <v>104</v>
+      <c r="AP8" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="AQ8" s="3"/>
     </row>
@@ -1504,8 +1512,8 @@
       <c r="AA9" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="AB9" s="29" t="s">
-        <v>98</v>
+      <c r="AB9" s="30" t="s">
+        <v>124</v>
       </c>
       <c r="AC9" s="17" t="s">
         <v>66</v>
@@ -1538,7 +1546,7 @@
       </c>
       <c r="AO9" s="3"/>
       <c r="AP9" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -1610,7 +1618,7 @@
         <v>97</v>
       </c>
       <c r="AB10" s="29" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="AC10" s="17" t="s">
         <v>66</v>
@@ -1643,7 +1651,7 @@
       </c>
       <c r="AO10" s="3"/>
       <c r="AP10" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -1715,7 +1723,7 @@
         <v>97</v>
       </c>
       <c r="AB11" s="29" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="AC11" s="17" t="s">
         <v>66</v>
@@ -1748,7 +1756,7 @@
       </c>
       <c r="AO11" s="3"/>
       <c r="AP11" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1820,7 +1828,7 @@
         <v>97</v>
       </c>
       <c r="AB12" s="29" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="AC12" s="17" t="s">
         <v>66</v>
@@ -1853,7 +1861,7 @@
       </c>
       <c r="AO12" s="3"/>
       <c r="AP12" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1925,7 +1933,7 @@
         <v>97</v>
       </c>
       <c r="AB13" s="29" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="AC13" s="17" t="s">
         <v>66</v>
@@ -1958,7 +1966,7 @@
       </c>
       <c r="AO13" s="3"/>
       <c r="AP13" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2030,7 +2038,7 @@
         <v>97</v>
       </c>
       <c r="AB14" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AC14" s="17" t="s">
         <v>66</v>
@@ -2063,7 +2071,7 @@
       </c>
       <c r="AO14" s="3"/>
       <c r="AP14" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2135,7 +2143,7 @@
         <v>97</v>
       </c>
       <c r="AB15" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC15" s="17" t="s">
         <v>66</v>
@@ -2168,7 +2176,7 @@
       </c>
       <c r="AO15" s="3"/>
       <c r="AP15" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2242,7 +2250,7 @@
         <v>97</v>
       </c>
       <c r="AB16" s="29" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="AC16" s="17" t="s">
         <v>66</v>
@@ -2277,7 +2285,7 @@
       </c>
       <c r="AO16" s="3"/>
       <c r="AP16" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2351,7 +2359,7 @@
         <v>97</v>
       </c>
       <c r="AB17" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC17" s="17" t="s">
         <v>66</v>
@@ -2386,7 +2394,7 @@
       </c>
       <c r="AO17" s="3"/>
       <c r="AP17" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2458,7 +2466,7 @@
         <v>97</v>
       </c>
       <c r="AB18" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC18" s="17" t="s">
         <v>66</v>
@@ -2491,7 +2499,7 @@
       </c>
       <c r="AO18" s="3"/>
       <c r="AP18" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2561,7 +2569,7 @@
         <v>97</v>
       </c>
       <c r="AB19" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AC19" s="17" t="s">
         <v>66</v>
@@ -2596,7 +2604,7 @@
       </c>
       <c r="AO19" s="3"/>
       <c r="AP19" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2668,7 +2676,7 @@
         <v>97</v>
       </c>
       <c r="AB20" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC20" s="17" t="s">
         <v>66</v>
@@ -2701,7 +2709,7 @@
       </c>
       <c r="AO20" s="3"/>
       <c r="AP20" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2773,7 +2781,7 @@
         <v>97</v>
       </c>
       <c r="AB21" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC21" s="17" t="s">
         <v>66</v>
@@ -2806,7 +2814,7 @@
       </c>
       <c r="AO21" s="3"/>
       <c r="AP21" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2878,7 +2886,7 @@
         <v>97</v>
       </c>
       <c r="AB22" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC22" s="17" t="s">
         <v>66</v>
@@ -2911,7 +2919,7 @@
       </c>
       <c r="AO22" s="3"/>
       <c r="AP22" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2983,7 +2991,7 @@
         <v>97</v>
       </c>
       <c r="AB23" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC23" s="17" t="s">
         <v>66</v>
@@ -3016,7 +3024,7 @@
       </c>
       <c r="AO23" s="3"/>
       <c r="AP23" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3088,7 +3096,7 @@
         <v>97</v>
       </c>
       <c r="AB24" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC24" s="17" t="s">
         <v>66</v>
@@ -3121,7 +3129,7 @@
       </c>
       <c r="AO24" s="3"/>
       <c r="AP24" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3195,7 +3203,7 @@
         <v>97</v>
       </c>
       <c r="AB25" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AC25" s="17" t="s">
         <v>66</v>
@@ -3230,7 +3238,7 @@
       </c>
       <c r="AO25" s="3"/>
       <c r="AP25" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3302,7 +3310,7 @@
         <v>97</v>
       </c>
       <c r="AB26" s="29" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="AC26" s="17" t="s">
         <v>66</v>
@@ -3335,7 +3343,7 @@
       </c>
       <c r="AO26" s="3"/>
       <c r="AP26" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3407,7 +3415,7 @@
         <v>97</v>
       </c>
       <c r="AB27" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AC27" s="17" t="s">
         <v>66</v>
@@ -3440,7 +3448,7 @@
       </c>
       <c r="AO27" s="3"/>
       <c r="AP27" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3512,7 +3520,7 @@
         <v>97</v>
       </c>
       <c r="AB28" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC28" s="17" t="s">
         <v>66</v>
@@ -3545,7 +3553,7 @@
       </c>
       <c r="AO28" s="3"/>
       <c r="AP28" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3617,7 +3625,7 @@
         <v>97</v>
       </c>
       <c r="AB29" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC29" s="17" t="s">
         <v>66</v>
@@ -3650,7 +3658,7 @@
       </c>
       <c r="AO29" s="3"/>
       <c r="AP29" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -37394,7 +37402,7 @@
       <c r="AQ779" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/data/vgp_database/Tequila_volcanic_field.xlsx
+++ b/data/vgp_database/Tequila_volcanic_field.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Github/Gallo_etal_2023_APWP_construction/data/vgp_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50CC584-E0CD-4447-88EE-496B976A77A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFCFC85-2C28-6D4B-BD0E-6A3127902014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="105">
   <si>
     <t>Name:</t>
   </si>
@@ -348,66 +348,6 @@
   </si>
   <si>
     <t>citations</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352632</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352633</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352634</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352635</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352636</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352637</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352638</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352639</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352640</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352641</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352642</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352643</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352644</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352645</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352646</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352647</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352648</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352649</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352650</t>
-  </si>
-  <si>
-    <t>10.1186/BF03352651</t>
   </si>
   <si>
     <t>Andesite</t>
@@ -816,7 +756,7 @@
   <dimension ref="A1:AQ779"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AP8" sqref="AP8"/>
+      <selection activeCell="AP10" sqref="AP10:AP29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1513,7 +1453,7 @@
         <v>97</v>
       </c>
       <c r="AB9" s="30" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="AC9" s="17" t="s">
         <v>66</v>
@@ -1618,7 +1558,7 @@
         <v>97</v>
       </c>
       <c r="AB10" s="29" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="AC10" s="17" t="s">
         <v>66</v>
@@ -1650,8 +1590,9 @@
         <v>46</v>
       </c>
       <c r="AO10" s="3"/>
-      <c r="AP10" s="18" t="s">
-        <v>104</v>
+      <c r="AP10" s="18" t="str">
+        <f>AP9</f>
+        <v>10.1186/BF03352631</v>
       </c>
     </row>
     <row r="11" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -1723,7 +1664,7 @@
         <v>97</v>
       </c>
       <c r="AB11" s="29" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="AC11" s="17" t="s">
         <v>66</v>
@@ -1755,8 +1696,9 @@
         <v>46</v>
       </c>
       <c r="AO11" s="3"/>
-      <c r="AP11" s="18" t="s">
-        <v>105</v>
+      <c r="AP11" s="18" t="str">
+        <f t="shared" ref="AP11:AP29" si="0">AP10</f>
+        <v>10.1186/BF03352631</v>
       </c>
     </row>
     <row r="12" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1828,7 +1770,7 @@
         <v>97</v>
       </c>
       <c r="AB12" s="29" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="AC12" s="17" t="s">
         <v>66</v>
@@ -1860,8 +1802,9 @@
         <v>46</v>
       </c>
       <c r="AO12" s="3"/>
-      <c r="AP12" s="18" t="s">
-        <v>106</v>
+      <c r="AP12" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1186/BF03352631</v>
       </c>
     </row>
     <row r="13" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1933,7 +1876,7 @@
         <v>97</v>
       </c>
       <c r="AB13" s="29" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="AC13" s="17" t="s">
         <v>66</v>
@@ -1965,8 +1908,9 @@
         <v>46</v>
       </c>
       <c r="AO13" s="3"/>
-      <c r="AP13" s="18" t="s">
-        <v>107</v>
+      <c r="AP13" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1186/BF03352631</v>
       </c>
     </row>
     <row r="14" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2070,8 +2014,9 @@
         <v>46</v>
       </c>
       <c r="AO14" s="3"/>
-      <c r="AP14" s="18" t="s">
-        <v>108</v>
+      <c r="AP14" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1186/BF03352631</v>
       </c>
     </row>
     <row r="15" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2175,8 +2120,9 @@
         <v>46</v>
       </c>
       <c r="AO15" s="3"/>
-      <c r="AP15" s="18" t="s">
-        <v>109</v>
+      <c r="AP15" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1186/BF03352631</v>
       </c>
     </row>
     <row r="16" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2250,7 +2196,7 @@
         <v>97</v>
       </c>
       <c r="AB16" s="29" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="AC16" s="17" t="s">
         <v>66</v>
@@ -2284,8 +2230,9 @@
         <v>46</v>
       </c>
       <c r="AO16" s="3"/>
-      <c r="AP16" s="18" t="s">
-        <v>110</v>
+      <c r="AP16" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1186/BF03352631</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2393,8 +2340,9 @@
         <v>46</v>
       </c>
       <c r="AO17" s="3"/>
-      <c r="AP17" s="18" t="s">
-        <v>111</v>
+      <c r="AP17" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1186/BF03352631</v>
       </c>
     </row>
     <row r="18" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2498,8 +2446,9 @@
         <v>46</v>
       </c>
       <c r="AO18" s="3"/>
-      <c r="AP18" s="18" t="s">
-        <v>112</v>
+      <c r="AP18" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1186/BF03352631</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2603,8 +2552,9 @@
         <v>46</v>
       </c>
       <c r="AO19" s="3"/>
-      <c r="AP19" s="18" t="s">
-        <v>113</v>
+      <c r="AP19" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1186/BF03352631</v>
       </c>
     </row>
     <row r="20" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2708,8 +2658,9 @@
         <v>46</v>
       </c>
       <c r="AO20" s="3"/>
-      <c r="AP20" s="18" t="s">
-        <v>114</v>
+      <c r="AP20" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1186/BF03352631</v>
       </c>
     </row>
     <row r="21" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2813,8 +2764,9 @@
         <v>46</v>
       </c>
       <c r="AO21" s="3"/>
-      <c r="AP21" s="18" t="s">
-        <v>115</v>
+      <c r="AP21" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1186/BF03352631</v>
       </c>
     </row>
     <row r="22" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2918,8 +2870,9 @@
         <v>46</v>
       </c>
       <c r="AO22" s="3"/>
-      <c r="AP22" s="18" t="s">
-        <v>116</v>
+      <c r="AP22" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1186/BF03352631</v>
       </c>
     </row>
     <row r="23" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -3023,8 +2976,9 @@
         <v>46</v>
       </c>
       <c r="AO23" s="3"/>
-      <c r="AP23" s="18" t="s">
-        <v>117</v>
+      <c r="AP23" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1186/BF03352631</v>
       </c>
     </row>
     <row r="24" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3128,8 +3082,9 @@
         <v>46</v>
       </c>
       <c r="AO24" s="3"/>
-      <c r="AP24" s="18" t="s">
-        <v>118</v>
+      <c r="AP24" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1186/BF03352631</v>
       </c>
     </row>
     <row r="25" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3237,8 +3192,9 @@
         <v>46</v>
       </c>
       <c r="AO25" s="3"/>
-      <c r="AP25" s="18" t="s">
-        <v>119</v>
+      <c r="AP25" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1186/BF03352631</v>
       </c>
     </row>
     <row r="26" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3310,7 +3266,7 @@
         <v>97</v>
       </c>
       <c r="AB26" s="29" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="AC26" s="17" t="s">
         <v>66</v>
@@ -3342,8 +3298,9 @@
         <v>46</v>
       </c>
       <c r="AO26" s="3"/>
-      <c r="AP26" s="18" t="s">
-        <v>120</v>
+      <c r="AP26" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1186/BF03352631</v>
       </c>
     </row>
     <row r="27" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3447,8 +3404,9 @@
         <v>46</v>
       </c>
       <c r="AO27" s="3"/>
-      <c r="AP27" s="18" t="s">
-        <v>121</v>
+      <c r="AP27" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1186/BF03352631</v>
       </c>
     </row>
     <row r="28" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3552,8 +3510,9 @@
         <v>46</v>
       </c>
       <c r="AO28" s="3"/>
-      <c r="AP28" s="18" t="s">
-        <v>122</v>
+      <c r="AP28" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1186/BF03352631</v>
       </c>
     </row>
     <row r="29" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3657,8 +3616,9 @@
         <v>46</v>
       </c>
       <c r="AO29" s="3"/>
-      <c r="AP29" s="18" t="s">
-        <v>123</v>
+      <c r="AP29" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1186/BF03352631</v>
       </c>
     </row>
     <row r="30" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
